--- a/Samples/DokumentationLaufzeitPfadlänge.xlsx
+++ b/Samples/DokumentationLaufzeitPfadlänge.xlsx
@@ -8,24 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/Dokumente/Uni/Bioinformatik/2. Semester/Fortgeschrittene Methoden der Bioinformatik/Projekt/Enum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E29B1C8-BC30-684A-B26C-718F8BE72F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2324EFC0-25B5-324D-8C04-DEFC943FC32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="500" windowWidth="26900" windowHeight="13900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15920" xr2:uid="{8EAB42FE-90E2-1A4F-B374-0952B4754905}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
   <si>
     <t>Richi</t>
   </si>
@@ -36,100 +46,76 @@
     <t>Tommy</t>
   </si>
   <si>
+    <t>full-Path Enumeration</t>
+  </si>
+  <si>
+    <t>Anzahl (Pfade)</t>
+  </si>
+  <si>
+    <t>Full Graph</t>
+  </si>
+  <si>
+    <t>cleaned Graph</t>
+  </si>
+  <si>
     <t>Zeit in s</t>
   </si>
   <si>
-    <t>Anzahl (Pfade)</t>
-  </si>
-  <si>
-    <t>full-Path Enumeration</t>
-  </si>
-  <si>
-    <t>Full Graph</t>
+    <t>Bins</t>
+  </si>
+  <si>
+    <t>only MultiBins</t>
+  </si>
+  <si>
+    <t>activeBinPath-Enumeration</t>
+  </si>
+  <si>
+    <t>activeBinPath-Enumeration2</t>
+  </si>
+  <si>
+    <t>activeBinPath-Enumeration3</t>
   </si>
   <si>
     <t>34min 30s</t>
   </si>
   <si>
-    <t>37 min</t>
-  </si>
-  <si>
-    <t>cleaned Graph</t>
-  </si>
-  <si>
     <t>37,5s</t>
   </si>
   <si>
-    <t>27s</t>
-  </si>
-  <si>
-    <t>activeBinPath-Enumeration</t>
-  </si>
-  <si>
-    <t>Bins</t>
+    <t>40,5s</t>
+  </si>
+  <si>
+    <t>48,5s</t>
+  </si>
+  <si>
+    <t>22min55s</t>
   </si>
   <si>
     <t>27min 53s</t>
   </si>
   <si>
-    <t>40,5s</t>
-  </si>
-  <si>
-    <t>30s</t>
-  </si>
-  <si>
-    <t>only MultiBins</t>
-  </si>
-  <si>
     <t>21min46s</t>
   </si>
   <si>
-    <t>16 min</t>
-  </si>
-  <si>
-    <t>48,5s</t>
-  </si>
-  <si>
-    <t>29s</t>
-  </si>
-  <si>
-    <t>activeBinPath-Enumeration2</t>
+    <t>39,3s</t>
+  </si>
+  <si>
+    <t>33,5s</t>
+  </si>
+  <si>
+    <t>33,1s</t>
   </si>
   <si>
     <t>20min42s</t>
   </si>
   <si>
-    <t>39,3s</t>
-  </si>
-  <si>
-    <t>29 s</t>
-  </si>
-  <si>
-    <t>22min55s</t>
-  </si>
-  <si>
-    <t>33,5s</t>
-  </si>
-  <si>
-    <t>activeBinPath-Enumeration3</t>
-  </si>
-  <si>
     <t>16min 50s</t>
   </si>
   <si>
-    <t>33,1s</t>
+    <t>39,9s</t>
   </si>
   <si>
     <t>19min44s</t>
-  </si>
-  <si>
-    <t>39,9s</t>
-  </si>
-  <si>
-    <t>PairedBinsToBins (a)</t>
-  </si>
-  <si>
-    <t>2min22s</t>
   </si>
 </sst>
 </file>
@@ -139,10 +125,10 @@
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -165,23 +151,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -497,116 +482,104 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914D7077-C6CA-FD46-9A47-DB5A1FAE7771}">
+  <dimension ref="B2:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="I2" s="7" t="s">
+      <c r="G2" s="6"/>
+      <c r="I2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="L2" s="7" t="s">
+      <c r="J2" s="6"/>
+      <c r="L2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="7"/>
+      <c r="M2" s="6"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="F3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G3" t="s">
         <v>4</v>
       </c>
       <c r="I3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J3" t="s">
         <v>4</v>
       </c>
       <c r="L3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G5">
         <v>19293622</v>
       </c>
-      <c r="I5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="2">
-        <v>19293622</v>
-      </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
       <c r="D6" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G6">
         <v>97599</v>
       </c>
-      <c r="I6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="2">
-        <v>97598</v>
-      </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>13</v>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G8">
         <v>7414510</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B9" s="6"/>
-      <c r="C9" s="5"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
       <c r="D9" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F9" t="s">
         <v>15</v>
@@ -614,62 +587,44 @@
       <c r="G9">
         <v>82832</v>
       </c>
-      <c r="I9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="2">
-        <v>82832</v>
-      </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B10" s="6"/>
+      <c r="B10" s="3"/>
       <c r="C10" s="5" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G10">
         <v>7414510</v>
       </c>
-      <c r="I10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10">
-        <v>7414510</v>
-      </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="6"/>
+      <c r="B11" s="3"/>
       <c r="C11" s="5"/>
       <c r="D11" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G11">
         <v>82832</v>
       </c>
-      <c r="I11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11">
-        <v>82832</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>13</v>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F14" t="s">
         <v>23</v>
@@ -679,174 +634,113 @@
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B15" s="6"/>
-      <c r="C15" s="5"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
       <c r="D15" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G15">
         <v>82832</v>
       </c>
-      <c r="I15" t="s">
-        <v>25</v>
-      </c>
-      <c r="J15">
-        <v>82832</v>
-      </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="6"/>
+      <c r="B16" s="3"/>
       <c r="C16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" t="s">
         <v>17</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" t="s">
-        <v>26</v>
       </c>
       <c r="G16">
         <v>7414510</v>
       </c>
-      <c r="I16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16">
-        <v>7414510</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="6"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="3"/>
       <c r="C17" s="5"/>
       <c r="D17" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F17" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G17">
         <v>82832</v>
       </c>
-      <c r="I17" t="s">
-        <v>25</v>
-      </c>
-      <c r="J17">
-        <v>82832</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>13</v>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G20">
         <v>7414510</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="6"/>
-      <c r="C21" s="5"/>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
       <c r="D21" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G21">
         <v>82832</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="6"/>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="3"/>
       <c r="C22" s="5" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G22">
         <v>7414510</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="6"/>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23" s="3"/>
       <c r="C23" s="5"/>
       <c r="D23" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G23">
         <v>82832</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="4"/>
-      <c r="C27" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28">
-        <v>88836</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="F2:G2"/>
+  <mergeCells count="13">
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="B5:C6"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="F2:G2"/>
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="C16:C17"/>
@@ -854,7 +748,6 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Samples/DokumentationLaufzeitPfadlänge.xlsx
+++ b/Samples/DokumentationLaufzeitPfadlänge.xlsx
@@ -1,41 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/Dokumente/Uni/Bioinformatik/2. Semester/Fortgeschrittene Methoden der Bioinformatik/Projekt/Enum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2324EFC0-25B5-324D-8C04-DEFC943FC32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D154FFB-772E-2841-9AEE-365EDE607A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15920" xr2:uid="{8EAB42FE-90E2-1A4F-B374-0952B4754905}"/>
+    <workbookView xWindow="1900" yWindow="500" windowWidth="26900" windowHeight="13900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="39">
   <si>
     <t>Richi</t>
   </si>
@@ -46,76 +36,112 @@
     <t>Tommy</t>
   </si>
   <si>
+    <t>Zeit in s</t>
+  </si>
+  <si>
+    <t>Anzahl (Pfade)</t>
+  </si>
+  <si>
     <t>full-Path Enumeration</t>
   </si>
   <si>
-    <t>Anzahl (Pfade)</t>
-  </si>
-  <si>
     <t>Full Graph</t>
   </si>
   <si>
+    <t>34min 30s</t>
+  </si>
+  <si>
+    <t>37 min</t>
+  </si>
+  <si>
     <t>cleaned Graph</t>
   </si>
   <si>
-    <t>Zeit in s</t>
+    <t>37,5s</t>
+  </si>
+  <si>
+    <t>27s</t>
+  </si>
+  <si>
+    <t>activeBinPath-Enumeration</t>
   </si>
   <si>
     <t>Bins</t>
   </si>
   <si>
+    <t>27min 53s</t>
+  </si>
+  <si>
+    <t>40,5s</t>
+  </si>
+  <si>
+    <t>30s</t>
+  </si>
+  <si>
     <t>only MultiBins</t>
   </si>
   <si>
-    <t>activeBinPath-Enumeration</t>
+    <t>21min46s</t>
+  </si>
+  <si>
+    <t>16 min</t>
+  </si>
+  <si>
+    <t>48,5s</t>
+  </si>
+  <si>
+    <t>29s</t>
   </si>
   <si>
     <t>activeBinPath-Enumeration2</t>
   </si>
   <si>
+    <t>20min42s</t>
+  </si>
+  <si>
+    <t>39,3s</t>
+  </si>
+  <si>
+    <t>29 s</t>
+  </si>
+  <si>
+    <t>22min55s</t>
+  </si>
+  <si>
+    <t>33,5s</t>
+  </si>
+  <si>
     <t>activeBinPath-Enumeration3</t>
   </si>
   <si>
-    <t>34min 30s</t>
-  </si>
-  <si>
-    <t>37,5s</t>
-  </si>
-  <si>
-    <t>40,5s</t>
-  </si>
-  <si>
-    <t>48,5s</t>
-  </si>
-  <si>
-    <t>22min55s</t>
-  </si>
-  <si>
-    <t>27min 53s</t>
-  </si>
-  <si>
-    <t>21min46s</t>
-  </si>
-  <si>
-    <t>39,3s</t>
-  </si>
-  <si>
-    <t>33,5s</t>
+    <t>16min 50s</t>
   </si>
   <si>
     <t>33,1s</t>
   </si>
   <si>
-    <t>20min42s</t>
-  </si>
-  <si>
-    <t>16min 50s</t>
+    <t>19min44s</t>
   </si>
   <si>
     <t>39,9s</t>
   </si>
   <si>
-    <t>19min44s</t>
+    <t>PairedBinsToBins (a)</t>
+  </si>
+  <si>
+    <t>2min22s</t>
+  </si>
+  <si>
+    <t>PostFilter pairedBins (b)</t>
+  </si>
+  <si>
+    <t>PairedBinsToBins (a)  &amp; PostFilter pairedBins (b)</t>
+  </si>
+  <si>
+    <t>44,3 s</t>
+  </si>
+  <si>
+    <t>2m54s</t>
   </si>
 </sst>
 </file>
@@ -125,10 +151,10 @@
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -151,23 +177,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -482,104 +509,119 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914D7077-C6CA-FD46-9A47-DB5A1FAE7771}">
-  <dimension ref="B2:M23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="22" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="I2" s="6" t="s">
+      <c r="G2" s="4"/>
+      <c r="I2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="L2" s="6" t="s">
+      <c r="J2" s="4"/>
+      <c r="L2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="6"/>
+      <c r="M2" s="4"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="F3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
         <v>4</v>
       </c>
       <c r="I3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J3" t="s">
         <v>4</v>
       </c>
       <c r="L3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4"/>
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5"/>
       <c r="D5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G5">
         <v>19293622</v>
       </c>
+      <c r="I5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="2">
+        <v>19293622</v>
+      </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
       <c r="D6" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G6">
         <v>97599</v>
       </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="2">
+        <v>97598</v>
+      </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>8</v>
+    <row r="8" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G8">
         <v>7414510</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="5"/>
       <c r="D9" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
         <v>15</v>
@@ -587,44 +629,62 @@
       <c r="G9">
         <v>82832</v>
       </c>
+      <c r="I9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="2">
+        <v>82832</v>
+      </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B10" s="3"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G10">
         <v>7414510</v>
       </c>
+      <c r="I10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10">
+        <v>7414510</v>
+      </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="3"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="5"/>
       <c r="D11" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G11">
         <v>82832</v>
       </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>8</v>
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11">
+        <v>82832</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F14" t="s">
         <v>23</v>
@@ -634,120 +694,257 @@
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B15" s="3"/>
-      <c r="C15" s="4"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="5"/>
       <c r="D15" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G15">
         <v>82832</v>
       </c>
+      <c r="I15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15">
+        <v>82832</v>
+      </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="3"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G16">
         <v>7414510</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="3"/>
+      <c r="I16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16">
+        <v>7414510</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17" s="6"/>
       <c r="C17" s="5"/>
       <c r="D17" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G17">
         <v>82832</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>8</v>
+      <c r="I17" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17">
+        <v>82832</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G20">
         <v>7414510</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B21" s="6"/>
+      <c r="C21" s="5"/>
       <c r="D21" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G21">
         <v>82832</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="3"/>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B22" s="6"/>
       <c r="C22" s="5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F22" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G22">
         <v>7414510</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="3"/>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B23" s="6"/>
       <c r="C23" s="5"/>
       <c r="D23" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G23">
         <v>82832</v>
       </c>
     </row>
+    <row r="25" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B26" s="7"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B27" s="7"/>
+      <c r="C27" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B28" s="7"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28">
+        <v>90912</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B30" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B31" s="7"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B32" s="7"/>
+      <c r="C32" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B33" s="7"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" t="s">
+        <v>37</v>
+      </c>
+      <c r="G33">
+        <v>75943</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B36" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B37" s="7"/>
+      <c r="C37" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B38" s="7"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38">
+        <v>84078</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B39" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="21">
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="F2:G2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="B5:C6"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Samples/DokumentationLaufzeitPfadlänge.xlsx
+++ b/Samples/DokumentationLaufzeitPfadlänge.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/Dokumente/Uni/Bioinformatik/2. Semester/Fortgeschrittene Methoden der Bioinformatik/Projekt/Enum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8855B9F2-31BF-C849-9F37-06A2FC93B52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08836266-2801-3C41-968E-B38E927F294D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="15760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="43">
   <si>
     <t>Richi</t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>39m20s</t>
+  </si>
+  <si>
+    <t>154m 40s</t>
   </si>
 </sst>
 </file>
@@ -185,6 +191,11 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -193,11 +204,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -515,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -525,18 +531,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="I2" s="3" t="s">
+      <c r="G2" s="6"/>
+      <c r="I2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="L2" s="3" t="s">
+      <c r="J2" s="6"/>
+      <c r="L2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="3"/>
+      <c r="M2" s="6"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="F3" t="s">
@@ -559,11 +565,11 @@
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F5" t="s">
@@ -575,14 +581,14 @@
       <c r="I5" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="2">
         <v>19293622</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="4" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F6" t="s">
@@ -594,23 +600,23 @@
       <c r="I6" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="2">
         <v>97598</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="4"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F8" t="s">
@@ -621,9 +627,9 @@
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="4" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F9" t="s">
@@ -635,16 +641,16 @@
       <c r="I9" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="2">
         <v>82832</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B10" s="1"/>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F10" t="s">
@@ -661,9 +667,9 @@
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="4" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F11" t="s">
@@ -680,13 +686,13 @@
       </c>
     </row>
     <row r="14" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F14" t="s">
@@ -697,9 +703,9 @@
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="4" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F15" t="s">
@@ -716,11 +722,11 @@
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="1"/>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F16" t="s">
@@ -737,9 +743,9 @@
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="1"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="4" t="s">
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F17" t="s">
@@ -756,13 +762,13 @@
       </c>
     </row>
     <row r="20" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F20" t="s">
@@ -773,9 +779,9 @@
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="1"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="4" t="s">
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F21" t="s">
@@ -786,11 +792,11 @@
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="1"/>
-      <c r="C22" s="2" t="s">
+      <c r="B22" s="4"/>
+      <c r="C22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F22" t="s">
@@ -801,9 +807,9 @@
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="1"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="4" t="s">
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F23" t="s">
@@ -814,36 +820,39 @@
       </c>
     </row>
     <row r="25" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="1"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="4" t="s">
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="1"/>
-      <c r="C27" s="2" t="s">
+      <c r="B27" s="4"/>
+      <c r="C27" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>6</v>
+      <c r="D27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27">
+        <v>15756714</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="1"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="4" t="s">
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F28" t="s">
@@ -860,36 +869,42 @@
       </c>
     </row>
     <row r="30" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="1"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="4" t="s">
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B32" s="1"/>
-      <c r="C32" s="2" t="s">
+      <c r="B32" s="4"/>
+      <c r="C32" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>6</v>
+      <c r="D32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" t="s">
+        <v>41</v>
+      </c>
+      <c r="G32">
+        <v>520827</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B33" s="1"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="4" t="s">
+      <c r="B33" s="4"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F33" t="s">
@@ -900,23 +915,29 @@
       </c>
     </row>
     <row r="36" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B37" s="1"/>
-      <c r="C37" s="2" t="s">
+      <c r="B37" s="4"/>
+      <c r="C37" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>6</v>
+      <c r="D37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" t="s">
+        <v>42</v>
+      </c>
+      <c r="G37">
+        <v>733357</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B38" s="1"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="4" t="s">
+      <c r="B38" s="4"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F38" t="s">
@@ -930,10 +951,23 @@
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B39" s="1"/>
+      <c r="B39" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
     <mergeCell ref="B36:B39"/>
     <mergeCell ref="C37:C38"/>
     <mergeCell ref="B25:B28"/>
@@ -942,19 +976,6 @@
     <mergeCell ref="B30:B33"/>
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="C32:C33"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Samples/DokumentationLaufzeitPfadlänge.xlsx
+++ b/Samples/DokumentationLaufzeitPfadlänge.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="48">
   <si>
     <t xml:space="preserve">Richi</t>
   </si>
@@ -58,6 +58,9 @@
     <t xml:space="preserve">26s</t>
   </si>
   <si>
+    <t xml:space="preserve">34s</t>
+  </si>
+  <si>
     <t xml:space="preserve">activeBinPath-Enumeration</t>
   </si>
   <si>
@@ -100,6 +103,9 @@
     <t xml:space="preserve">29 s</t>
   </si>
   <si>
+    <t xml:space="preserve">36s</t>
+  </si>
+  <si>
     <t xml:space="preserve">22min55s</t>
   </si>
   <si>
@@ -128,6 +134,9 @@
   </si>
   <si>
     <t xml:space="preserve">1min37s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1min49</t>
   </si>
   <si>
     <t xml:space="preserve">final enumeration only with Pairedbins</t>
@@ -282,11 +291,11 @@
   </sheetPr>
   <dimension ref="B2:M40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J22" activeCellId="0" sqref="J22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L29" activeCellId="0" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.34765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.35546875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.77"/>
@@ -365,6 +374,12 @@
       <c r="J6" s="4" t="n">
         <v>97597</v>
       </c>
+      <c r="L6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>97598</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="5"/>
@@ -373,16 +388,16 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>7414510</v>
@@ -395,13 +410,13 @@
         <v>9</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>82832</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J9" s="4" t="n">
         <v>82831</v>
@@ -410,19 +425,19 @@
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="6"/>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>7414510</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>7414510</v>
@@ -435,13 +450,13 @@
         <v>9</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>82832</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>82831</v>
@@ -449,16 +464,16 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>7414510</v>
@@ -471,34 +486,40 @@
         <v>9</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>82832</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J15" s="0" t="n">
         <v>82831</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>82832</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="6"/>
       <c r="C16" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G16" s="0" t="n">
         <v>7414510</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J16" s="0" t="n">
         <v>7414510</v>
@@ -511,13 +532,13 @@
         <v>9</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G17" s="0" t="n">
         <v>82832</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J17" s="0" t="n">
         <v>82831</v>
@@ -525,16 +546,16 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G20" s="0" t="n">
         <v>7414510</v>
@@ -547,7 +568,7 @@
         <v>9</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>82832</v>
@@ -556,13 +577,13 @@
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="6"/>
       <c r="C22" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>7414510</v>
@@ -575,7 +596,7 @@
         <v>9</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>82832</v>
@@ -583,10 +604,10 @@
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>6</v>
@@ -602,7 +623,7 @@
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="6"/>
       <c r="C27" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>6</v>
@@ -618,28 +639,34 @@
         <v>9</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G28" s="0" t="n">
         <v>90912</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J28" s="0" t="n">
         <v>90911</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="M28" s="0" t="n">
+        <v>90912</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="6"/>
       <c r="C29" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>9</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J29" s="0" t="n">
         <v>90845</v>
@@ -647,10 +674,10 @@
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>6</v>
@@ -666,13 +693,13 @@
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="6"/>
       <c r="C33" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G33" s="0" t="n">
         <v>520827</v>
@@ -685,13 +712,13 @@
         <v>9</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G34" s="0" t="n">
         <v>53048</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J34" s="0" t="n">
         <v>52506</v>
@@ -699,19 +726,19 @@
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B37" s="6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="6"/>
       <c r="C38" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G38" s="0" t="n">
         <v>733357</v>
@@ -724,7 +751,7 @@
         <v>9</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G39" s="0" t="n">
         <v>56527</v>
@@ -758,8 +785,8 @@
     <mergeCell ref="C38:C39"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
